--- a/medicine/Psychotrope/Gueuze/Gueuze.xlsx
+++ b/medicine/Psychotrope/Gueuze/Gueuze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gueuze  (parfois gueuse) (en néerlandais,  parfois geuze) est un type de bière obtenue à partir de l'assemblage de bières lambic. Des lambics jeunes (de 6  à   12 mois) et vieux (jusqu'à 3 ans) sont mélangés et la bière subit une seconde fermentation.
 Bien que le lambic soit rarement commercialisé en bouteille, les noms des deux bières sont parfois utilisés l'un pour l'autre.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brasseries de Bruxelles, du Pajottenland et de la vallée de la Senne
-Brasserie Belle Vue, Zuen (Leeuw-Saint-Pierre, Sint-Pieters-Leeuw, en néerlandais)  (appartient au groupe AB Inbev)
+          <t>Brasseries de Bruxelles, du Pajottenland et de la vallée de la Senne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Brasserie Belle Vue, Zuen (Leeuw-Saint-Pierre, Sint-Pieters-Leeuw, en néerlandais)  (appartient au groupe AB Inbev)
 Brasserie Boon, Lembecq (Lembeek en néerlandais) (membre du HORAL)
 Brasserie Cantillon, Bruxelles (Anderlecht)
 Brasserie De Troch, Wambeek (membre du HORAL)
@@ -526,14 +543,82 @@
 Brasserie Lindemans, Vlezenbeek (membre du HORAL)
 Brasserie Mort Subite, Kobbeghem (Kobbegem en néerlandais) (appartient au groupe Heineken S.A. et membre du HORAL)
 Brasserie Timmermans, Itterbeek (appartient au groupe John Martin et membre du HORAL)
-Brussels Beer Project, Dansaert (Bruxelles)[1]
-Assembleurs (Coupeurs)
-Gueuzerie De Cam, Gooik (membre du HORAL)
+Brussels Beer Project, Dansaert (Bruxelles)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gueuze</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gueuze</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Brasseurs et assembleurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Assembleurs (Coupeurs)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gueuzerie De Cam, Gooik (membre du HORAL)
 Gueuzerie Hanssens, Tourneppe (Dworp en néerlandais)(membre du HORAL)
 Oud Beersel, Beersel (membre du HORAL)
-Gueuzerie Tilquin, Bierghes (membre du HORAL)
-Brasseries de Flandre Occidentale
-Brasserie Omer Vander Ghinste Bellegem
+Gueuzerie Tilquin, Bierghes (membre du HORAL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gueuze</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gueuze</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Brasseurs et assembleurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brasseries de Flandre Occidentale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brasserie Omer Vander Ghinste Bellegem
 Brasserie Van Honsebrouck, Ingelmunster</t>
         </is>
       </c>
